--- a/BackTest/2019-10-19 BackTest FNB.xlsx
+++ b/BackTest/2019-10-19 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.999999999999993</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>57.89473684210522</v>
+      </c>
       <c r="L12" t="n">
         <v>43.38</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.099999999999987</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>44.44444444444493</v>
+      </c>
       <c r="L13" t="n">
         <v>43.48</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.499999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.28571428571419</v>
+      </c>
       <c r="L14" t="n">
         <v>43.52</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.699999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>10.00000000000014</v>
+      </c>
       <c r="L15" t="n">
         <v>43.57</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-4.761904761904826</v>
+      </c>
       <c r="L16" t="n">
         <v>43.57</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.200000000000003</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-4.761904761904826</v>
+      </c>
       <c r="L17" t="n">
         <v>43.59</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.700000000000003</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-27.99999999999975</v>
+      </c>
       <c r="L18" t="n">
         <v>43.53000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-10.34482758620678</v>
+      </c>
       <c r="L19" t="n">
         <v>43.50000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-10.34482758620678</v>
+      </c>
       <c r="L20" t="n">
         <v>43.43000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.99999999999975</v>
+      </c>
       <c r="L21" t="n">
         <v>43.40000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-7.142857142857216</v>
+      </c>
       <c r="L22" t="n">
         <v>43.37000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>14.2857142857142</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L23" t="n">
         <v>43.34000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.703703703703626</v>
+        <v>-26.66666666666657</v>
       </c>
       <c r="L24" t="n">
         <v>43.28000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>5.999999999999993</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-9.677419354838635</v>
       </c>
       <c r="L25" t="n">
         <v>43.23</v>
@@ -1564,7 +1586,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-10.71428571428562</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L26" t="n">
         <v>43.17</v>
@@ -1613,7 +1635,7 @@
         <v>6.499999999999986</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.771929824561422</v>
+        <v>-7.142857142857288</v>
       </c>
       <c r="L27" t="n">
         <v>43.1</v>
@@ -1662,7 +1684,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.36363636363651</v>
+        <v>-28.00000000000027</v>
       </c>
       <c r="L28" t="n">
         <v>43.07</v>
@@ -1711,7 +1733,7 @@
         <v>6.79999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.28571428571425</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L29" t="n">
         <v>43.02</v>
@@ -1760,7 +1782,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>-15.78947368421052</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L30" t="n">
         <v>42.99999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111114</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L31" t="n">
         <v>42.96999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.11111111111099</v>
+        <v>-8.333333333333162</v>
       </c>
       <c r="L32" t="n">
         <v>42.93999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.433962264150923</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L33" t="n">
         <v>42.91999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.040816326530494</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L34" t="n">
         <v>42.96999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>57.14285714285671</v>
       </c>
       <c r="L35" t="n">
         <v>43.02</v>
@@ -2064,7 +2086,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L36" t="n">
         <v>43.08</v>
@@ -2115,7 +2137,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.382978723404352</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L37" t="n">
         <v>43.12</v>
@@ -2166,7 +2188,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L38" t="n">
         <v>43.15</v>
@@ -2217,7 +2239,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.325581395348876</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>43.19</v>
@@ -2268,7 +2290,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K40" t="n">
-        <v>9.999999999999982</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L40" t="n">
         <v>43.25</v>
@@ -2319,7 +2341,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K41" t="n">
-        <v>9.999999999999982</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L41" t="n">
         <v>43.32</v>
@@ -2370,7 +2392,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.702702702702744</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L42" t="n">
         <v>43.34</v>
@@ -2421,7 +2443,7 @@
         <v>8.699999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.702702702702744</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L43" t="n">
         <v>43.35</v>
@@ -2472,7 +2494,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>16.12903225806455</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L44" t="n">
         <v>43.35</v>
@@ -2523,7 +2545,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>7.142857142857252</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L45" t="n">
         <v>43.32</v>
@@ -2574,7 +2596,7 @@
         <v>8.899999999999991</v>
       </c>
       <c r="K46" t="n">
-        <v>15.38461538461532</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L46" t="n">
         <v>43.3</v>
@@ -2625,7 +2647,7 @@
         <v>8.899999999999991</v>
       </c>
       <c r="K47" t="n">
-        <v>8.333333333333432</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>43.28</v>
@@ -2676,7 +2698,7 @@
         <v>8.999999999999993</v>
       </c>
       <c r="K48" t="n">
-        <v>8.333333333333432</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L48" t="n">
         <v>43.27</v>
@@ -2727,7 +2749,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K49" t="n">
-        <v>18.5185185185185</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>43.28</v>
@@ -2778,7 +2800,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>14.28571428571421</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L50" t="n">
         <v>43.26000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>14.2857142857145</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L51" t="n">
         <v>43.23</v>
@@ -2880,7 +2902,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.11111111111129</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L52" t="n">
         <v>43.18</v>
@@ -2931,7 +2953,7 @@
         <v>10.2</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.2857142857145</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L53" t="n">
         <v>43.13</v>
@@ -3033,7 +3055,7 @@
         <v>10.6</v>
       </c>
       <c r="K55" t="n">
-        <v>-10.34482758620678</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L55" t="n">
         <v>43.13</v>
@@ -3084,7 +3106,7 @@
         <v>10.6</v>
       </c>
       <c r="K56" t="n">
-        <v>-3.703703703703489</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L56" t="n">
         <v>43.14</v>
@@ -3135,7 +3157,7 @@
         <v>10.6</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.703703703703489</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L57" t="n">
         <v>43.14999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>10.8</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.703703703703742</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L58" t="n">
         <v>43.14999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>10.8</v>
       </c>
       <c r="K59" t="n">
-        <v>-16.66666666666652</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L59" t="n">
         <v>43.09999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>10.8</v>
       </c>
       <c r="K60" t="n">
-        <v>-21.7391304347825</v>
+        <v>-20</v>
       </c>
       <c r="L60" t="n">
         <v>43.06999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-24.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>43.03999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>-24.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>43.02999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>-21.7391304347825</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>43.02999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>-13.04347826086964</v>
+        <v>-60</v>
       </c>
       <c r="L64" t="n">
         <v>42.99999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.66666666666677</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>42.95999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.333333333333384</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L66" t="n">
         <v>42.92999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>42.89</v>
@@ -3696,7 +3718,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.000000000000023</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>42.88</v>
@@ -3747,7 +3769,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.33333333333311</v>
+        <v>-25</v>
       </c>
       <c r="L69" t="n">
         <v>42.86</v>
@@ -3798,7 +3820,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-26.31578947368394</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>42.84</v>
@@ -3849,7 +3871,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>42.83</v>
@@ -3900,7 +3922,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.49999999999961</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L72" t="n">
         <v>42.82</v>
@@ -3951,7 +3973,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.666666666666224</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L73" t="n">
         <v>42.81</v>
@@ -4002,7 +4024,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-23.07692307692333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L74" t="n">
         <v>42.81</v>
@@ -4053,7 +4075,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-28.57142857142886</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L75" t="n">
         <v>42.81</v>
@@ -4104,7 +4126,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-20.00000000000019</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L76" t="n">
         <v>42.81</v>
@@ -4155,7 +4177,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L77" t="n">
         <v>42.84999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>-10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>42.84</v>
@@ -4257,7 +4279,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571409</v>
+        <v>-7.692307692307272</v>
       </c>
       <c r="L79" t="n">
         <v>42.83</v>
@@ -4308,7 +4330,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L80" t="n">
         <v>42.84999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L81" t="n">
         <v>42.85999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>4.347826086956576</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L82" t="n">
         <v>42.87999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L83" t="n">
         <v>42.88999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>-8.333333333333162</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L84" t="n">
         <v>42.86999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.333333333333162</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L85" t="n">
         <v>42.84999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-16.66666666666662</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L86" t="n">
         <v>42.81</v>
@@ -4665,7 +4687,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>-8.333333333333162</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L87" t="n">
         <v>42.75</v>
@@ -4716,7 +4738,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-13.04347826086946</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L88" t="n">
         <v>42.73</v>
@@ -4767,7 +4789,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-13.04347826086946</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L89" t="n">
         <v>42.71</v>
@@ -4818,7 +4840,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-13.04347826086946</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L90" t="n">
         <v>42.66</v>
@@ -4869,7 +4891,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-8.333333333333162</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L91" t="n">
         <v>42.63000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.347826086956576</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L92" t="n">
         <v>42.60000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.333333333333432</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>42.57000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>-18.18181818181803</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>42.55000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>-21.7391304347825</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>42.52000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>42.53000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>-27.27272727272722</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>42.53000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111085</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>42.53000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>9.999999999999751</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L99" t="n">
         <v>42.57000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.88235294117652</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L100" t="n">
         <v>42.61000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L101" t="n">
         <v>42.64</v>
@@ -5430,7 +5452,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L102" t="n">
         <v>42.67</v>
@@ -5481,7 +5503,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L103" t="n">
         <v>42.7</v>
@@ -5532,7 +5554,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>17.64705882352907</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L104" t="n">
         <v>42.75</v>
@@ -5583,7 +5605,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>17.64705882352907</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L105" t="n">
         <v>42.81</v>
@@ -5634,7 +5656,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>24.99999999999967</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L106" t="n">
         <v>42.83999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>19.99999999999962</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L107" t="n">
         <v>42.86999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>15.40000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>12.49999999999961</v>
+        <v>-20</v>
       </c>
       <c r="L108" t="n">
         <v>42.88999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>15.40000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>19.99999999999962</v>
+        <v>-20</v>
       </c>
       <c r="L109" t="n">
         <v>42.87999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>12.50000000000011</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L110" t="n">
         <v>42.85999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>6.66666666666673</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L111" t="n">
         <v>42.83999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>6.66666666666673</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L112" t="n">
         <v>42.81999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>42.80999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>15.60000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>19.99999999999981</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L114" t="n">
         <v>42.78999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>12.50000000000022</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L115" t="n">
         <v>42.74999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>16.10000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-20.00000000000038</v>
+        <v>-75.00000000000111</v>
       </c>
       <c r="L116" t="n">
         <v>42.69</v>
@@ -6195,7 +6217,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-12.50000000000022</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L117" t="n">
         <v>42.64</v>
@@ -6246,7 +6268,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-12.50000000000022</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L118" t="n">
         <v>42.59999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>16.30000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-42.857142857143</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L119" t="n">
         <v>42.55</v>
@@ -6348,7 +6370,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L120" t="n">
         <v>42.52</v>
@@ -6399,7 +6421,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L121" t="n">
         <v>42.48999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L122" t="n">
         <v>42.45999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-28.5714285714285</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L123" t="n">
         <v>42.42999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>-50.0000000000003</v>
+        <v>-20</v>
       </c>
       <c r="L124" t="n">
         <v>42.38999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>-45.45454545454569</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>42.37999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>42.38999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>16.50000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-50.0000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>42.37999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-50</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L128" t="n">
         <v>42.35999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>42.34999999999998</v>
@@ -6858,7 +6880,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571458</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L130" t="n">
         <v>42.35999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>-29.41176470588255</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L131" t="n">
         <v>42.33999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>17.30000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>-33.3333333333336</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>42.30999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>-40.00000000000036</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L133" t="n">
         <v>42.25999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-39.99999999999986</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>42.21999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>-10.00000000000014</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L135" t="n">
         <v>42.20999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>-9.999999999999822</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L136" t="n">
         <v>42.18</v>
@@ -7215,7 +7237,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>-20</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L137" t="n">
         <v>42.15</v>
@@ -7266,7 +7288,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.347826086956602</v>
+        <v>5.263157894736566</v>
       </c>
       <c r="L138" t="n">
         <v>42.16</v>
@@ -7317,7 +7339,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>15.38461538461564</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L139" t="n">
         <v>42.21</v>
@@ -7368,7 +7390,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>21.42857142857155</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L140" t="n">
         <v>42.26000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>26.66666666666687</v>
+        <v>52.38095238095242</v>
       </c>
       <c r="L141" t="n">
         <v>42.36</v>
@@ -7470,7 +7492,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>18.75000000000007</v>
+        <v>52.38095238095242</v>
       </c>
       <c r="L142" t="n">
         <v>42.45</v>
@@ -7521,7 +7543,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>15.38461538461532</v>
       </c>
       <c r="L143" t="n">
         <v>42.5</v>
@@ -7572,7 +7594,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-2.564102564102602</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>42.53</v>
@@ -7623,7 +7645,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>13.04347826086938</v>
       </c>
       <c r="L145" t="n">
         <v>42.54</v>
@@ -7674,7 +7696,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>6.976744186046605</v>
+        <v>27.99999999999995</v>
       </c>
       <c r="L146" t="n">
         <v>42.59999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>21.00000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>2.22222222222225</v>
+        <v>4.000000000000023</v>
       </c>
       <c r="L147" t="n">
         <v>42.63999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>21.00000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>4.545454545454435</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L148" t="n">
         <v>42.64999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>21.00000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>4.545454545454435</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L149" t="n">
         <v>42.61999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>21.40000000000003</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.11111111111108</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L150" t="n">
         <v>42.51999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>21.40000000000003</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.76190476190481</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L151" t="n">
         <v>42.39999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>21.50000000000003</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.76190476190481</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L152" t="n">
         <v>42.28999999999998</v>
@@ -8031,7 +8053,7 @@
         <v>22.10000000000003</v>
       </c>
       <c r="K153" t="n">
-        <v>13.04347826086955</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L153" t="n">
         <v>42.29999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>22.30000000000003</v>
       </c>
       <c r="K154" t="n">
-        <v>14.8936170212766</v>
+        <v>15.78947368421064</v>
       </c>
       <c r="L154" t="n">
         <v>42.33999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K155" t="n">
-        <v>6.66666666666673</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L155" t="n">
         <v>42.35999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K156" t="n">
-        <v>-2.04081632653063</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L156" t="n">
         <v>42.28999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K157" t="n">
-        <v>2.04081632653063</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L157" t="n">
         <v>42.26</v>
@@ -8286,7 +8308,7 @@
         <v>23.10000000000004</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.347826086956401</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L158" t="n">
         <v>42.23</v>
@@ -8337,7 +8359,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.090909090909179</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L159" t="n">
         <v>42.22000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.07317073170729</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L160" t="n">
         <v>42.25000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.07692307692311</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L161" t="n">
         <v>42.28000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-18.91891891891891</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L162" t="n">
         <v>42.32000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K163" t="n">
-        <v>3.030303030303056</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L163" t="n">
         <v>42.32000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>23.70000000000004</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L164" t="n">
         <v>42.28000000000002</v>
@@ -8643,7 +8665,7 @@
         <v>23.70000000000004</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.030303030303056</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L165" t="n">
         <v>42.25000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-18.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>42.26000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-10.34482758620678</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>42.26000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K168" t="n">
-        <v>-10.34482758620678</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L168" t="n">
         <v>42.26000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K169" t="n">
-        <v>-10.34482758620678</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L169" t="n">
         <v>42.24000000000002</v>
@@ -8898,7 +8920,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>4.000000000000045</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L170" t="n">
         <v>42.22000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>24.10000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111099</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>42.22000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>24.80000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-9.090909090909012</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L172" t="n">
         <v>42.15000000000002</v>
@@ -9051,7 +9073,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>42.13000000000002</v>
@@ -9102,7 +9124,7 @@
         <v>25.80000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>-20.00000000000016</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>42.10000000000002</v>
@@ -9153,7 +9175,7 @@
         <v>25.80000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>-17.64705882352953</v>
+        <v>-5.263157894736961</v>
       </c>
       <c r="L175" t="n">
         <v>42.07000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>26.20000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>12.50000000000003</v>
+        <v>13.04347826086954</v>
       </c>
       <c r="L176" t="n">
         <v>42.10000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>26.30000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>6.249999999999903</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L177" t="n">
         <v>42.12000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>26.60000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>-2.857142857142915</v>
+        <v>-3.703703703703782</v>
       </c>
       <c r="L178" t="n">
         <v>42.11000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>-5.882352941176372</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>42.11000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>26.80000000000002</v>
       </c>
       <c r="K180" t="n">
-        <v>-8.571428571428525</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L180" t="n">
         <v>42.10000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571419</v>
       </c>
       <c r="L181" t="n">
         <v>42.06</v>
@@ -9510,7 +9532,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L182" t="n">
         <v>42.09</v>
@@ -9561,7 +9583,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>-17.64705882352953</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L183" t="n">
         <v>42.05</v>
@@ -9612,7 +9634,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>-12.50000000000003</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L184" t="n">
         <v>42.03999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>-15.15151515151523</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L185" t="n">
         <v>42.02</v>
@@ -9714,7 +9736,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.677419354838888</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L186" t="n">
         <v>41.95999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>-12.50000000000003</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L187" t="n">
         <v>41.89999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-12.50000000000003</v>
+        <v>-100</v>
       </c>
       <c r="L188" t="n">
         <v>41.86999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>27.70000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>5.263157894736763</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>41.88999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-2.439024390243953</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L190" t="n">
         <v>41.88999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>28.20000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-12.19512195121957</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L191" t="n">
         <v>41.88</v>
@@ -10020,7 +10042,7 @@
         <v>28.3</v>
       </c>
       <c r="K192" t="n">
-        <v>2.857142857142915</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L192" t="n">
         <v>41.86</v>
@@ -10071,7 +10093,7 @@
         <v>28.3</v>
       </c>
       <c r="K193" t="n">
-        <v>-21.42857142857136</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L193" t="n">
         <v>41.84</v>
@@ -10122,7 +10144,7 @@
         <v>28.7</v>
       </c>
       <c r="K194" t="n">
-        <v>3.448275862069033</v>
+        <v>17.64705882352985</v>
       </c>
       <c r="L194" t="n">
         <v>41.86</v>
@@ -10173,7 +10195,7 @@
         <v>28.8</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L195" t="n">
         <v>41.88</v>
@@ -10224,7 +10246,7 @@
         <v>28.8</v>
       </c>
       <c r="K196" t="n">
-        <v>-15.3846153846154</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L196" t="n">
         <v>41.9</v>
@@ -10275,7 +10297,7 @@
         <v>29.1</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>29.99999999999993</v>
       </c>
       <c r="L197" t="n">
         <v>41.96</v>
@@ -10326,7 +10348,7 @@
         <v>29.2</v>
       </c>
       <c r="K198" t="n">
-        <v>7.69230769230786</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L198" t="n">
         <v>42.01000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>29.3</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L199" t="n">
         <v>41.99</v>
@@ -10428,7 +10450,7 @@
         <v>29.5</v>
       </c>
       <c r="K200" t="n">
-        <v>-3.703703703703782</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L200" t="n">
         <v>41.98</v>
@@ -10479,7 +10501,7 @@
         <v>29.9</v>
       </c>
       <c r="K201" t="n">
-        <v>13.33333333333338</v>
+        <v>37.49999999999978</v>
       </c>
       <c r="L201" t="n">
         <v>42.03</v>
@@ -10530,7 +10552,7 @@
         <v>29.9</v>
       </c>
       <c r="K202" t="n">
-        <v>13.33333333333338</v>
+        <v>37.49999999999978</v>
       </c>
       <c r="L202" t="n">
         <v>42.09</v>
@@ -10581,7 +10603,7 @@
         <v>29.9</v>
       </c>
       <c r="K203" t="n">
-        <v>13.33333333333338</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L203" t="n">
         <v>42.15000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>30.3</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L204" t="n">
         <v>42.13</v>
@@ -10683,7 +10705,7 @@
         <v>30.3</v>
       </c>
       <c r="K205" t="n">
-        <v>3.030303030303096</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L205" t="n">
         <v>42.12</v>
@@ -10734,7 +10756,7 @@
         <v>30.4</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L206" t="n">
         <v>42.1</v>
@@ -10785,7 +10807,7 @@
         <v>30.59999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>-2.857142857142915</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L207" t="n">
         <v>42.03</v>
@@ -10836,7 +10858,7 @@
         <v>30.59999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.857142857142915</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L208" t="n">
         <v>41.97000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>30.7</v>
       </c>
       <c r="K209" t="n">
-        <v>-19.9999999999999</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L209" t="n">
         <v>41.93</v>
@@ -10938,7 +10960,7 @@
         <v>30.7</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.11111111111105</v>
+        <v>-74.99999999999956</v>
       </c>
       <c r="L210" t="n">
         <v>41.91</v>
@@ -10989,7 +11011,7 @@
         <v>30.89999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>3.703703703703782</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L211" t="n">
         <v>41.87</v>
@@ -11040,7 +11062,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L212" t="n">
         <v>41.81</v>
@@ -11091,7 +11113,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L213" t="n">
         <v>41.74999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.66666666666671</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L214" t="n">
         <v>41.73</v>
@@ -11193,7 +11215,7 @@
         <v>31.19999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.333333333333531</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>41.72</v>
@@ -11244,7 +11266,7 @@
         <v>31.29999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>-4.000000000000091</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L216" t="n">
         <v>41.73</v>
@@ -11295,7 +11317,7 @@
         <v>31.29999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>-18.18181818181827</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L217" t="n">
         <v>41.75999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-18.18181818181854</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L218" t="n">
         <v>41.77999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.28571428571458</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L219" t="n">
         <v>41.78999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-29.41176470588255</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L221" t="n">
         <v>41.8</v>
@@ -11550,7 +11572,7 @@
         <v>31.69999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>41.8</v>
@@ -11601,7 +11623,7 @@
         <v>31.89999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-20.00000000000014</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L223" t="n">
         <v>41.81999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>32.19999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>-15.78947368421056</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L224" t="n">
         <v>41.81</v>
@@ -11703,7 +11725,7 @@
         <v>32.59999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>4.347826086956629</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L225" t="n">
         <v>41.83</v>
@@ -11754,7 +11776,7 @@
         <v>32.89999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>-3.999999999999818</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L226" t="n">
         <v>41.81</v>
@@ -11805,7 +11827,7 @@
         <v>32.89999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>4.347826086956629</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L227" t="n">
         <v>41.79</v>
@@ -11856,7 +11878,7 @@
         <v>32.89999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>4.347826086956629</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L228" t="n">
         <v>41.77999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>32.89999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L229" t="n">
         <v>41.77</v>
@@ -11958,7 +11980,7 @@
         <v>32.99999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>-4.347826086956629</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L230" t="n">
         <v>41.73999999999999</v>
@@ -12009,7 +12031,7 @@
         <v>32.99999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>-14.28571428571428</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L231" t="n">
         <v>41.72</v>
@@ -12060,7 +12082,7 @@
         <v>32.99999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>-5.263157894736961</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L232" t="n">
         <v>41.71</v>
@@ -12111,7 +12133,7 @@
         <v>33.09999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.00000000000021</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L233" t="n">
         <v>41.67</v>
@@ -12162,7 +12184,7 @@
         <v>33.09999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>-10.00000000000021</v>
+        <v>-100</v>
       </c>
       <c r="L234" t="n">
         <v>41.66</v>
@@ -12213,7 +12235,7 @@
         <v>33.19999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>-9.999999999999822</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>41.62</v>
@@ -12264,7 +12286,7 @@
         <v>33.39999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>-4.761904761904859</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L236" t="n">
         <v>41.63000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>33.59999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>4.347826086956602</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L237" t="n">
         <v>41.66000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>33.79999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L238" t="n">
         <v>41.67000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>33.79999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L239" t="n">
         <v>41.68000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L240" t="n">
         <v>41.71000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>4.347826086956602</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L241" t="n">
         <v>41.74</v>
@@ -12570,7 +12592,7 @@
         <v>33.99999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>4.34782608695628</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L242" t="n">
         <v>41.76000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>34.19999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>4.347826086956576</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L243" t="n">
         <v>41.81</v>
@@ -12672,7 +12694,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>9.090909090908857</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L244" t="n">
         <v>41.84</v>
@@ -12723,7 +12745,7 @@
         <v>34.49999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.263157894736882</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L245" t="n">
         <v>41.87</v>
@@ -12774,7 +12796,7 @@
         <v>34.59999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>17.64705882352907</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>41.89</v>
@@ -12825,7 +12847,7 @@
         <v>34.69999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111076</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L247" t="n">
         <v>41.88</v>
@@ -12876,7 +12898,7 @@
         <v>34.79999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>5.263157894736488</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>41.88</v>
@@ -12927,7 +12949,7 @@
         <v>34.89999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>9.99999999999968</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>41.88999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>4.761904761904794</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L250" t="n">
         <v>41.86999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>35.29999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>-4.347826086956549</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L251" t="n">
         <v>41.83</v>
@@ -13080,7 +13102,7 @@
         <v>35.79999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>41.84999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>35.89999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>14.28571428571414</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L253" t="n">
         <v>41.83999999999999</v>
@@ -13182,7 +13204,7 @@
         <v>36.29999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>24.99999999999978</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L254" t="n">
         <v>41.88999999999999</v>
@@ -13233,7 +13255,7 @@
         <v>36.29999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>22.58064516129007</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L255" t="n">
         <v>41.92999999999999</v>
@@ -13284,7 +13306,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>6.250000000000055</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L256" t="n">
         <v>41.92999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>36.79999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>6.250000000000055</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L257" t="n">
         <v>41.95999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>36.99999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>6.250000000000055</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L258" t="n">
         <v>41.98</v>
@@ -13437,7 +13459,7 @@
         <v>36.99999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>6.250000000000055</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L259" t="n">
         <v>41.98999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>36.99999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>3.225806451612933</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L260" t="n">
         <v>42.02</v>
@@ -13539,7 +13561,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L261" t="n">
         <v>42.06</v>
@@ -13590,7 +13612,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>3.225806451612933</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>42.05</v>
@@ -13641,7 +13663,7 @@
         <v>37.29999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-9.677419354838591</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L263" t="n">
         <v>42.02999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>37.49999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>3.225806451612947</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>41.98999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>37.69999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>-6.249999999999875</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L265" t="n">
         <v>41.92999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>10.52631578947367</v>
+        <v>12.49999999999983</v>
       </c>
       <c r="L266" t="n">
         <v>41.96999999999998</v>
@@ -13845,7 +13867,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>13.51351351351356</v>
+        <v>28.57142857142879</v>
       </c>
       <c r="L267" t="n">
         <v>41.98999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>38.49999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>13.51351351351356</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>42.01999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>8.108108108108263</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L269" t="n">
         <v>42.03999999999998</v>
@@ -13998,7 +14020,7 @@
         <v>38.69999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>11.11111111111111</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L270" t="n">
         <v>42.04999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>38.79999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>20.00000000000016</v>
+        <v>17.64705882352985</v>
       </c>
       <c r="L271" t="n">
         <v>42.07999999999999</v>
@@ -14100,7 +14122,7 @@
         <v>38.99999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L272" t="n">
         <v>42.08999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>39.19999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>9.090909090909248</v>
+        <v>17.64705882352971</v>
       </c>
       <c r="L273" t="n">
         <v>42.13999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>-6.66666666666654</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L274" t="n">
         <v>42.16</v>
@@ -14253,7 +14275,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>3.030303030303082</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>42.23</v>
@@ -14304,7 +14326,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>13.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>42.23</v>
@@ -14355,7 +14377,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-3.225806451612962</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L277" t="n">
         <v>42.2</v>
@@ -14406,7 +14428,7 @@
         <v>40.19999999999997</v>
       </c>
       <c r="K278" t="n">
-        <v>12.50000000000003</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L278" t="n">
         <v>42.20999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>40.59999999999997</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L279" t="n">
         <v>42.19</v>
@@ -14508,7 +14530,7 @@
         <v>40.59999999999997</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L280" t="n">
         <v>42.17999999999999</v>
@@ -14559,7 +14581,7 @@
         <v>40.59999999999997</v>
       </c>
       <c r="K281" t="n">
-        <v>2.857142857142915</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>42.16</v>
@@ -14610,7 +14632,7 @@
         <v>40.59999999999997</v>
       </c>
       <c r="K282" t="n">
-        <v>2.857142857142915</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L282" t="n">
         <v>42.16</v>
@@ -14661,7 +14683,7 @@
         <v>40.69999999999997</v>
       </c>
       <c r="K283" t="n">
-        <v>5.882352941176372</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L283" t="n">
         <v>42.13</v>
@@ -14712,7 +14734,7 @@
         <v>40.79999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.030303030303082</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L284" t="n">
         <v>42.09999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>40.89999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>6.249999999999875</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L285" t="n">
         <v>42.05</v>
@@ -14814,7 +14836,7 @@
         <v>40.99999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>-15.38461538461532</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L286" t="n">
         <v>42.01</v>
@@ -14865,7 +14887,7 @@
         <v>40.99999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>-15.38461538461532</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L287" t="n">
         <v>41.99999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>40.99999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>41.95999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>41.09999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>-4.000000000000045</v>
+        <v>20</v>
       </c>
       <c r="L289" t="n">
         <v>41.97</v>
@@ -15018,7 +15040,7 @@
         <v>41.29999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>-7.692307692307776</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L290" t="n">
         <v>41.95999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>-21.42857142857145</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L291" t="n">
         <v>41.92</v>
@@ -15120,7 +15142,7 @@
         <v>41.69999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>-11.11111111111099</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L292" t="n">
         <v>41.89</v>
@@ -15171,7 +15193,7 @@
         <v>41.99999999999998</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.142857142857252</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L293" t="n">
         <v>41.9</v>
@@ -15222,7 +15244,7 @@
         <v>42.39999999999998</v>
       </c>
       <c r="K294" t="n">
-        <v>-16.12903225806455</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L294" t="n">
         <v>41.88</v>
@@ -15273,7 +15295,7 @@
         <v>42.89999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909012</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L295" t="n">
         <v>41.90000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>42.99999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>-5.882352941176348</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L296" t="n">
         <v>41.92</v>
@@ -15375,7 +15397,7 @@
         <v>42.99999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>3.225806451612947</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L297" t="n">
         <v>41.94</v>
@@ -15426,7 +15448,7 @@
         <v>42.99999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>-7.14285714285698</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L298" t="n">
         <v>41.96</v>
@@ -15477,7 +15499,7 @@
         <v>43.09999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>4.000000000000045</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L299" t="n">
         <v>41.96</v>
@@ -15528,7 +15550,7 @@
         <v>43.09999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>4.000000000000045</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>41.98</v>
@@ -15579,7 +15601,7 @@
         <v>43.19999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>42.04000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>43.49999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>-3.448275862068999</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L302" t="n">
         <v>42.06</v>
@@ -15681,7 +15703,7 @@
         <v>43.99999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>15.1515151515151</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L303" t="n">
         <v>42.1</v>
@@ -15732,7 +15754,7 @@
         <v>44.09999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>15.1515151515151</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L304" t="n">
         <v>42.17</v>
@@ -15783,7 +15805,7 @@
         <v>44.29999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>5.882352941176544</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L305" t="n">
         <v>42.17</v>
@@ -15834,7 +15856,7 @@
         <v>44.69999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>13.5135135135135</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L306" t="n">
         <v>42.2</v>
@@ -15885,7 +15907,7 @@
         <v>45.19999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L307" t="n">
         <v>42.18</v>
@@ -15936,7 +15958,7 @@
         <v>45.39999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>-4.545454545454604</v>
+        <v>-13.04347826086973</v>
       </c>
       <c r="L308" t="n">
         <v>42.14</v>
@@ -15987,7 +16009,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>-2.22222222222225</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L309" t="n">
         <v>42.13</v>
@@ -16038,7 +16060,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>2.325581395348868</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L310" t="n">
         <v>42.12</v>
@@ -16089,7 +16111,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>9.999999999999947</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L311" t="n">
         <v>42.1</v>
@@ -16140,7 +16162,7 @@
         <v>45.69999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>4.999999999999885</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L312" t="n">
         <v>42.1</v>
@@ -16191,7 +16213,7 @@
         <v>46.19999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>9.523809523809469</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L313" t="n">
         <v>42.1</v>
@@ -16242,7 +16264,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>15.00000000000001</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L314" t="n">
         <v>42.09</v>
@@ -16293,7 +16315,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>2.857142857142892</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L315" t="n">
         <v>42.09999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L316" t="n">
         <v>42.06999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L317" t="n">
         <v>42.08999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>46.49999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>-2.857142857142892</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L318" t="n">
         <v>42.11999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>46.59999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>-2.857142857142892</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>42.11999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>46.89999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>5.263157894736723</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L320" t="n">
         <v>42.14999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>47.09999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>-2.564102564102602</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L321" t="n">
         <v>42.16</v>
@@ -16650,7 +16672,7 @@
         <v>47.29999999999998</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L322" t="n">
         <v>42.16</v>
@@ -16701,7 +16723,7 @@
         <v>47.29999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>-15.15151515151517</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L323" t="n">
         <v>42.11</v>
@@ -16752,7 +16774,7 @@
         <v>47.29999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>-12.49999999999997</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L324" t="n">
         <v>42.08</v>
@@ -16803,7 +16825,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L325" t="n">
         <v>42.07</v>
@@ -16854,7 +16876,7 @@
         <v>47.69999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>-20</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L326" t="n">
         <v>42.04</v>
@@ -16905,7 +16927,7 @@
         <v>47.69999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>-4.000000000000045</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L327" t="n">
         <v>42.01</v>
@@ -16956,7 +16978,7 @@
         <v>47.69999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>4.347826086956576</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L328" t="n">
         <v>41.98999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>47.69999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>-4.761904761904826</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L329" t="n">
         <v>41.97999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>47.79999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.090909090909207</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L330" t="n">
         <v>41.92999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>47.99999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L331" t="n">
         <v>41.91999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>48.09999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-26.31578947368413</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>41.91999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>48.09999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-17.64705882352956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>41.91999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>48.09999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>-17.64705882352956</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>41.89999999999998</v>
@@ -17364,7 +17386,7 @@
         <v>48.09999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>-17.64705882352956</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>41.89999999999998</v>
@@ -17415,7 +17437,7 @@
         <v>48.3</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.263157894736882</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>41.91999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>48.5</v>
       </c>
       <c r="K338" t="n">
-        <v>-10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>41.91999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>48.5</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.263157894736882</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L339" t="n">
         <v>41.91999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>48.5</v>
       </c>
       <c r="K340" t="n">
-        <v>-24.99999999999967</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>41.92999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>48.5</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>41.91999999999998</v>
@@ -17670,7 +17692,7 @@
         <v>48.6</v>
       </c>
       <c r="K342" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L342" t="n">
         <v>41.92999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>48.6</v>
       </c>
       <c r="K343" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L343" t="n">
         <v>41.93999999999998</v>
@@ -17823,7 +17845,7 @@
         <v>48.7</v>
       </c>
       <c r="K345" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>41.93999999999998</v>
@@ -17874,7 +17896,7 @@
         <v>48.8</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.090909090909092</v>
+        <v>-60</v>
       </c>
       <c r="L346" t="n">
         <v>41.92999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L349" t="n">
         <v>41.89999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L350" t="n">
         <v>41.88999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L351" t="n">
         <v>41.88</v>
@@ -18180,7 +18202,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L352" t="n">
         <v>41.86999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>41.85999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>41.86999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L358" t="n">
         <v>41.86999999999999</v>
@@ -18537,7 +18559,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L359" t="n">
         <v>41.87999999999998</v>
@@ -18588,7 +18610,7 @@
         <v>49.10000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L360" t="n">
         <v>41.88999999999998</v>
@@ -18638,9 +18660,7 @@
       <c r="J361" t="n">
         <v>49.10000000000001</v>
       </c>
-      <c r="K361" t="n">
-        <v>0</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -18689,9 +18709,7 @@
       <c r="J362" t="n">
         <v>49.10000000000001</v>
       </c>
-      <c r="K362" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -18740,9 +18758,7 @@
       <c r="J363" t="n">
         <v>49.10000000000001</v>
       </c>
-      <c r="K363" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -18791,9 +18807,7 @@
       <c r="J364" t="n">
         <v>49.10000000000001</v>
       </c>
-      <c r="K364" t="n">
-        <v>0</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -18842,9 +18856,7 @@
       <c r="J365" t="n">
         <v>49.10000000000001</v>
       </c>
-      <c r="K365" t="n">
-        <v>0</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -18894,7 +18906,7 @@
         <v>49.20000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>41.88999999999998</v>
@@ -19047,7 +19059,7 @@
         <v>49.40000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L369" t="n">
         <v>41.87999999999998</v>
@@ -19098,7 +19110,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>41.87999999999998</v>
@@ -19149,7 +19161,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>41.87999999999998</v>
@@ -19353,7 +19365,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>41.87999999999998</v>
@@ -19455,7 +19467,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K377" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>41.89999999999998</v>
@@ -19506,7 +19518,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K378" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L378" t="n">
         <v>41.90999999999998</v>
@@ -19557,7 +19569,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K379" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L379" t="n">
         <v>41.92999999999999</v>
@@ -19608,7 +19620,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K380" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L380" t="n">
         <v>41.93999999999998</v>
@@ -19659,7 +19671,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K381" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L381" t="n">
         <v>41.94999999999999</v>
@@ -19710,7 +19722,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K382" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>41.95999999999999</v>
@@ -19761,7 +19773,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K383" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L383" t="n">
         <v>41.96999999999999</v>
@@ -19812,7 +19824,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>41.98</v>
@@ -19863,7 +19875,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K385" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L385" t="n">
         <v>41.98999999999999</v>
@@ -19913,9 +19925,7 @@
       <c r="J386" t="n">
         <v>49.60000000000002</v>
       </c>
-      <c r="K386" t="n">
-        <v>50</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>42</v>
       </c>
@@ -19965,7 +19975,7 @@
         <v>49.70000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L387" t="n">
         <v>41.98999999999999</v>
@@ -20016,7 +20026,7 @@
         <v>49.70000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L388" t="n">
         <v>41.98</v>
@@ -20067,7 +20077,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>41.98</v>
@@ -20118,7 +20128,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K390" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>41.98</v>
@@ -20169,7 +20179,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K391" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>41.98</v>
@@ -20220,7 +20230,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K392" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>41.98</v>
@@ -20271,7 +20281,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K393" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>41.98</v>
@@ -20322,7 +20332,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K394" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>41.98</v>
@@ -20373,7 +20383,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K395" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>41.98</v>
@@ -20424,7 +20434,7 @@
         <v>50.10000000000002</v>
       </c>
       <c r="K396" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L396" t="n">
         <v>41.95</v>
@@ -20475,7 +20485,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>41.95</v>
@@ -20526,7 +20536,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L398" t="n">
         <v>41.95</v>
@@ -20577,7 +20587,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L399" t="n">
         <v>41.93999999999999</v>
@@ -20628,7 +20638,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L400" t="n">
         <v>41.92999999999999</v>
@@ -20679,7 +20689,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L401" t="n">
         <v>41.91999999999999</v>
@@ -20730,7 +20740,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L402" t="n">
         <v>41.90999999999998</v>
@@ -20781,7 +20791,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L403" t="n">
         <v>41.89999999999998</v>
@@ -20832,7 +20842,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L404" t="n">
         <v>41.88999999999998</v>
@@ -20883,7 +20893,7 @@
         <v>50.30000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L405" t="n">
         <v>41.87999999999998</v>
@@ -20934,7 +20944,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L406" t="n">
         <v>41.88999999999998</v>
@@ -21036,7 +21046,7 @@
         <v>50.60000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>41.87999999999998</v>
@@ -21087,7 +21097,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>41.87999999999998</v>
@@ -21138,7 +21148,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K410" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>41.87999999999998</v>
@@ -21189,7 +21199,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K411" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>41.87999999999998</v>
@@ -21240,7 +21250,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K412" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>41.87999999999998</v>
@@ -21291,7 +21301,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K413" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>41.87999999999998</v>
@@ -21342,7 +21352,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K414" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>41.87999999999998</v>
@@ -21393,7 +21403,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K415" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>41.87999999999998</v>
@@ -21444,7 +21454,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K416" t="n">
-        <v>33.33333333333254</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>41.88999999999998</v>
@@ -21495,7 +21505,7 @@
         <v>50.70000000000002</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L417" t="n">
         <v>41.88999999999998</v>
@@ -21545,9 +21555,7 @@
       <c r="J418" t="n">
         <v>50.70000000000002</v>
       </c>
-      <c r="K418" t="n">
-        <v>0</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -21596,9 +21604,7 @@
       <c r="J419" t="n">
         <v>50.70000000000002</v>
       </c>
-      <c r="K419" t="n">
-        <v>0</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -21647,9 +21653,7 @@
       <c r="J420" t="n">
         <v>50.70000000000002</v>
       </c>
-      <c r="K420" t="n">
-        <v>0</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>41.89999999999998</v>
       </c>
@@ -21699,7 +21703,7 @@
         <v>50.90000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L421" t="n">
         <v>41.87999999999998</v>
@@ -21750,7 +21754,7 @@
         <v>51.00000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>-42.85714285714228</v>
+        <v>-100</v>
       </c>
       <c r="L422" t="n">
         <v>41.84999999999998</v>
@@ -21801,7 +21805,7 @@
         <v>51.00000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>-42.85714285714228</v>
+        <v>-100</v>
       </c>
       <c r="L423" t="n">
         <v>41.81999999999999</v>
@@ -21852,7 +21856,7 @@
         <v>51.00000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>-42.85714285714228</v>
+        <v>-100</v>
       </c>
       <c r="L424" t="n">
         <v>41.78999999999999</v>
@@ -21903,7 +21907,7 @@
         <v>51.10000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>-24.99999999999933</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L425" t="n">
         <v>41.77</v>
@@ -21954,7 +21958,7 @@
         <v>51.10000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>-14.28571428571342</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L426" t="n">
         <v>41.74999999999999</v>
@@ -22005,7 +22009,7 @@
         <v>51.10000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L427" t="n">
         <v>41.73</v>
@@ -22056,7 +22060,7 @@
         <v>51.40000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>25.00000000000044</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L428" t="n">
         <v>41.73999999999999</v>
@@ -22158,7 +22162,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>-11.11111111111129</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L430" t="n">
         <v>41.72000000000001</v>
@@ -22209,7 +22213,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K431" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L431" t="n">
         <v>41.73</v>
@@ -22260,7 +22264,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K432" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L432" t="n">
         <v>41.75000000000001</v>
@@ -22311,7 +22315,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L433" t="n">
         <v>41.77</v>
@@ -22362,7 +22366,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>-11.11111111111129</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L434" t="n">
         <v>41.79000000000001</v>
@@ -22413,7 +22417,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>-11.11111111111129</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L435" t="n">
         <v>41.8</v>
@@ -22464,7 +22468,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>-11.11111111111129</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L436" t="n">
         <v>41.81000000000001</v>
@@ -22515,7 +22519,7 @@
         <v>51.60000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>-11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L437" t="n">
         <v>41.82000000000001</v>
@@ -22565,9 +22569,7 @@
       <c r="J438" t="n">
         <v>51.60000000000002</v>
       </c>
-      <c r="K438" t="n">
-        <v>-11.11111111111129</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>41.80000000000001</v>
       </c>
@@ -22616,9 +22618,7 @@
       <c r="J439" t="n">
         <v>51.60000000000002</v>
       </c>
-      <c r="K439" t="n">
-        <v>-11.11111111111129</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>41.80000000000001</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>51.80000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L440" t="n">
         <v>41.82000000000001</v>
@@ -22719,7 +22719,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L441" t="n">
         <v>41.81000000000001</v>
@@ -22770,7 +22770,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K442" t="n">
-        <v>9.090909090909207</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L442" t="n">
         <v>41.8</v>
@@ -22821,7 +22821,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K443" t="n">
-        <v>9.090909090909207</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L443" t="n">
         <v>41.79000000000001</v>
@@ -22872,7 +22872,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K444" t="n">
-        <v>9.090909090909207</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L444" t="n">
         <v>41.78</v>
@@ -22923,7 +22923,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L445" t="n">
         <v>41.77</v>
@@ -22974,7 +22974,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L446" t="n">
         <v>41.76</v>
@@ -23025,7 +23025,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L447" t="n">
         <v>41.74999999999999</v>
@@ -23076,7 +23076,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K448" t="n">
-        <v>-42.85714285714228</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L448" t="n">
         <v>41.73999999999999</v>
@@ -23127,7 +23127,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K449" t="n">
-        <v>-19.99999999999886</v>
+        <v>-100</v>
       </c>
       <c r="L449" t="n">
         <v>41.72999999999999</v>
@@ -23177,9 +23177,7 @@
       <c r="J450" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K450" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23228,9 +23226,7 @@
       <c r="J451" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K451" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23279,9 +23275,7 @@
       <c r="J452" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K452" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23330,9 +23324,7 @@
       <c r="J453" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K453" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23381,9 +23373,7 @@
       <c r="J454" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K454" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23432,9 +23422,7 @@
       <c r="J455" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K455" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23483,9 +23471,7 @@
       <c r="J456" t="n">
         <v>52.10000000000002</v>
       </c>
-      <c r="K456" t="n">
-        <v>-19.99999999999886</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>41.69999999999999</v>
       </c>
@@ -23535,7 +23521,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L457" t="n">
         <v>41.68999999999999</v>
@@ -23586,7 +23572,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L458" t="n">
         <v>41.67999999999999</v>
@@ -23637,7 +23623,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>-33.33333333333254</v>
+        <v>-100</v>
       </c>
       <c r="L459" t="n">
         <v>41.67</v>
@@ -23994,7 +23980,7 @@
         <v>53.10000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>-59.99999999999972</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L466" t="n">
         <v>41.34000000000002</v>
@@ -24045,7 +24031,7 @@
         <v>53.10000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>-59.99999999999972</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L467" t="n">
         <v>41.29000000000001</v>
@@ -24096,7 +24082,7 @@
         <v>53.20000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>-63.6363636363634</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L468" t="n">
         <v>41.23000000000001</v>
@@ -24147,7 +24133,7 @@
         <v>53.20000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>-63.6363636363634</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L469" t="n">
         <v>41.17000000000001</v>
@@ -24198,7 +24184,7 @@
         <v>53.20000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>-63.6363636363634</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L470" t="n">
         <v>41.14000000000001</v>
@@ -24249,7 +24235,7 @@
         <v>53.60000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>-20.00000000000019</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L471" t="n">
         <v>41.14000000000001</v>
@@ -24300,7 +24286,7 @@
         <v>54.00000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>5.263157894736527</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L472" t="n">
         <v>41.17000000000001</v>
@@ -24351,7 +24337,7 @@
         <v>54.20000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>-4.761904761904826</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L473" t="n">
         <v>41.22000000000001</v>
@@ -24402,7 +24388,7 @@
         <v>54.30000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L474" t="n">
         <v>41.28000000000001</v>
@@ -24453,7 +24439,7 @@
         <v>54.40000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>-4.347826086956576</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L475" t="n">
         <v>41.33000000000001</v>
@@ -24504,7 +24490,7 @@
         <v>54.40000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>-4.347826086956576</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L476" t="n">
         <v>41.38000000000001</v>
@@ -24555,7 +24541,7 @@
         <v>54.60000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>-8.333333333333432</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L477" t="n">
         <v>41.41</v>
@@ -24606,7 +24592,7 @@
         <v>54.70000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>-4.000000000000045</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L478" t="n">
         <v>41.46</v>
@@ -24657,7 +24643,7 @@
         <v>54.70000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>-4.000000000000045</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>41.51000000000001</v>
@@ -24708,7 +24694,7 @@
         <v>54.80000000000003</v>
       </c>
       <c r="K480" t="n">
-        <v>4.347826086956576</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>41.55</v>
@@ -24759,7 +24745,7 @@
         <v>54.80000000000003</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L481" t="n">
         <v>41.55</v>
@@ -24810,7 +24796,7 @@
         <v>54.80000000000003</v>
       </c>
       <c r="K482" t="n">
-        <v>-4.761904761904826</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>41.51</v>
@@ -24861,7 +24847,7 @@
         <v>54.80000000000003</v>
       </c>
       <c r="K483" t="n">
-        <v>17.64705882352921</v>
+        <v>-60</v>
       </c>
       <c r="L483" t="n">
         <v>41.48999999999999</v>
@@ -24912,7 +24898,7 @@
         <v>55.10000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L484" t="n">
         <v>41.42999999999999</v>
@@ -24963,7 +24949,7 @@
         <v>55.10000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L485" t="n">
         <v>41.38</v>
@@ -25014,7 +25000,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>4.761904761904826</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L486" t="n">
         <v>41.33999999999999</v>
@@ -25065,7 +25051,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>4.761904761904826</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L487" t="n">
         <v>41.31999999999999</v>
@@ -25116,7 +25102,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>10.00000000000014</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L488" t="n">
         <v>41.28999999999999</v>
@@ -25167,7 +25153,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>10.00000000000014</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L489" t="n">
         <v>41.25999999999999</v>
@@ -25218,7 +25204,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K490" t="n">
-        <v>10.00000000000014</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L490" t="n">
         <v>41.23999999999999</v>
@@ -25269,7 +25255,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K491" t="n">
-        <v>-12.49999999999972</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L491" t="n">
         <v>41.21999999999999</v>
@@ -25320,7 +25306,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>-49.9999999999994</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L492" t="n">
         <v>41.2</v>
@@ -25371,7 +25357,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>-39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L493" t="n">
         <v>41.17999999999999</v>
@@ -25422,7 +25408,7 @@
         <v>55.20000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>-55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L494" t="n">
         <v>41.18999999999999</v>
@@ -25472,9 +25458,7 @@
       <c r="J495" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K495" t="n">
-        <v>-49.99999999999956</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25523,9 +25507,7 @@
       <c r="J496" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K496" t="n">
-        <v>-49.99999999999956</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25574,9 +25556,7 @@
       <c r="J497" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K497" t="n">
-        <v>-33.33333333333254</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25625,9 +25605,7 @@
       <c r="J498" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K498" t="n">
-        <v>-59.99999999999943</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25676,9 +25654,7 @@
       <c r="J499" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K499" t="n">
-        <v>-59.99999999999943</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25727,9 +25703,7 @@
       <c r="J500" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K500" t="n">
-        <v>-49.99999999999911</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25778,9 +25752,7 @@
       <c r="J501" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K501" t="n">
-        <v>-49.99999999999911</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25829,9 +25801,7 @@
       <c r="J502" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K502" t="n">
-        <v>-49.99999999999911</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25880,9 +25850,7 @@
       <c r="J503" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K503" t="n">
-        <v>-49.99999999999911</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25931,9 +25899,7 @@
       <c r="J504" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K504" t="n">
-        <v>100</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -25982,9 +25948,7 @@
       <c r="J505" t="n">
         <v>55.20000000000002</v>
       </c>
-      <c r="K505" t="n">
-        <v>100</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -26591,7 +26555,7 @@
         <v>55.80000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L517" t="n">
         <v>41.22999999999999</v>
@@ -26641,9 +26605,7 @@
       <c r="J518" t="n">
         <v>55.80000000000002</v>
       </c>
-      <c r="K518" t="n">
-        <v>0</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>41.19999999999999</v>
       </c>
@@ -26693,7 +26655,7 @@
         <v>55.90000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L519" t="n">
         <v>41.18999999999999</v>
@@ -26744,7 +26706,7 @@
         <v>56.00000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L520" t="n">
         <v>41.16999999999999</v>
@@ -26795,7 +26757,7 @@
         <v>56.50000000000002</v>
       </c>
       <c r="K521" t="n">
-        <v>23.07692307692291</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L521" t="n">
         <v>41.2</v>
@@ -26846,7 +26808,7 @@
         <v>57.00000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-11.11111111111129</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L522" t="n">
         <v>41.17999999999999</v>
@@ -26897,7 +26859,7 @@
         <v>57.00000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-11.11111111111129</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L523" t="n">
         <v>41.16</v>
@@ -26948,7 +26910,7 @@
         <v>57.50000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>13.04347826086946</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L524" t="n">
         <v>41.19</v>
@@ -27050,7 +27012,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K526" t="n">
-        <v>3.703703703703508</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L526" t="n">
         <v>41.2</v>
@@ -27101,7 +27063,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K527" t="n">
-        <v>3.703703703703508</v>
+        <v>4.761904761904504</v>
       </c>
       <c r="L527" t="n">
         <v>41.21</v>
@@ -27152,7 +27114,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K528" t="n">
-        <v>-8.333333333333481</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L528" t="n">
         <v>41.22000000000001</v>
@@ -27203,7 +27165,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>4.761904761904504</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L529" t="n">
         <v>41.24</v>
@@ -27254,7 +27216,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K530" t="n">
-        <v>9.090909090908914</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L530" t="n">
         <v>41.28</v>
@@ -27305,7 +27267,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K531" t="n">
-        <v>9.090909090908914</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L531" t="n">
         <v>41.27</v>
@@ -27356,7 +27318,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K532" t="n">
-        <v>9.090909090908914</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L532" t="n">
         <v>41.31</v>
@@ -27407,7 +27369,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K533" t="n">
-        <v>9.090909090908914</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L533" t="n">
         <v>41.34999999999999</v>
@@ -27458,7 +27420,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K534" t="n">
-        <v>9.090909090908914</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>41.33999999999999</v>
@@ -27509,7 +27471,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>13.04347826086946</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>41.36999999999999</v>
@@ -27560,7 +27522,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>13.04347826086946</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>41.38999999999999</v>
@@ -27611,7 +27573,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>13.04347826086946</v>
+        <v>100</v>
       </c>
       <c r="L537" t="n">
         <v>41.40999999999999</v>
@@ -27662,7 +27624,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>13.04347826086946</v>
+        <v>100</v>
       </c>
       <c r="L538" t="n">
         <v>41.42999999999999</v>
@@ -27713,7 +27675,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>18.18181818181815</v>
+        <v>100</v>
       </c>
       <c r="L539" t="n">
         <v>41.44999999999999</v>
@@ -27764,7 +27726,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>23.80952380952387</v>
+        <v>100</v>
       </c>
       <c r="L540" t="n">
         <v>41.45999999999999</v>
@@ -27815,7 +27777,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L541" t="n">
         <v>41.46999999999999</v>
@@ -27866,7 +27828,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L542" t="n">
         <v>41.48</v>
@@ -27917,7 +27879,7 @@
         <v>58.10000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L543" t="n">
         <v>41.48999999999999</v>
@@ -27967,9 +27929,7 @@
       <c r="J544" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="K544" t="n">
-        <v>0</v>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>41.5</v>
       </c>
@@ -28018,9 +27978,7 @@
       <c r="J545" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="K545" t="n">
-        <v>100</v>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>41.5</v>
       </c>
@@ -28069,9 +28027,7 @@
       <c r="J546" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="K546" t="n">
-        <v>100</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>41.5</v>
       </c>
@@ -28120,9 +28076,7 @@
       <c r="J547" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="K547" t="n">
-        <v>100</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>41.5</v>
       </c>
@@ -28171,9 +28125,7 @@
       <c r="J548" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="K548" t="n">
-        <v>100</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>41.5</v>
       </c>
@@ -28223,7 +28175,7 @@
         <v>58.20000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L549" t="n">
         <v>41.48999999999999</v>
@@ -28274,7 +28226,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>41.48999999999999</v>
@@ -28325,7 +28277,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L551" t="n">
         <v>41.48999999999999</v>
@@ -28376,7 +28328,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>41.48999999999999</v>
@@ -28427,7 +28379,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>41.48999999999999</v>
@@ -28478,7 +28430,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>41.48999999999999</v>
@@ -28682,7 +28634,7 @@
         <v>58.30000000000002</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L558" t="n">
         <v>41.48999999999999</v>
@@ -28732,9 +28684,7 @@
       <c r="J559" t="n">
         <v>58.30000000000002</v>
       </c>
-      <c r="K559" t="n">
-        <v>0</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>41.5</v>
       </c>
@@ -28783,9 +28733,7 @@
       <c r="J560" t="n">
         <v>58.30000000000002</v>
       </c>
-      <c r="K560" t="n">
-        <v>0</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>41.5</v>
       </c>
@@ -28834,9 +28782,7 @@
       <c r="J561" t="n">
         <v>58.30000000000002</v>
       </c>
-      <c r="K561" t="n">
-        <v>0</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>41.5</v>
       </c>
@@ -28885,9 +28831,7 @@
       <c r="J562" t="n">
         <v>58.30000000000002</v>
       </c>
-      <c r="K562" t="n">
-        <v>0</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>41.5</v>
       </c>

--- a/BackTest/2019-10-19 BackTest FNB.xlsx
+++ b/BackTest/2019-10-19 BackTest FNB.xlsx
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -16876,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="K471" t="n">
         <v>41</v>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="K472" t="n">
         <v>41</v>
@@ -16962,10 +16962,10 @@
         <v>0</v>
       </c>
       <c r="J473" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="K473" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
@@ -16995,14 +16995,16 @@
         <v>41.63333333333329</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>41.6</v>
+      </c>
       <c r="K474" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -17043,7 +17045,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -17084,7 +17086,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -17125,7 +17127,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -17166,7 +17168,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -17207,7 +17209,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -17248,7 +17250,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -17289,7 +17291,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -17330,7 +17332,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -17371,7 +17373,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -17412,7 +17414,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -17453,7 +17455,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -17494,7 +17496,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -17528,16 +17530,14 @@
         <v>41.54666666666662</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -17571,16 +17571,14 @@
         <v>41.53333333333329</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -17614,16 +17612,14 @@
         <v>41.52333333333328</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -17657,16 +17653,14 @@
         <v>41.51333333333328</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -17700,16 +17694,14 @@
         <v>41.50333333333327</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -17743,16 +17735,14 @@
         <v>41.49333333333326</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -17786,16 +17776,14 @@
         <v>41.48333333333326</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -17829,16 +17817,14 @@
         <v>41.47333333333325</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -17872,16 +17858,14 @@
         <v>41.46333333333325</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -17915,16 +17899,14 @@
         <v>41.45333333333324</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -17958,16 +17940,14 @@
         <v>41.44333333333324</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -18001,16 +17981,14 @@
         <v>41.43333333333323</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -18044,16 +18022,14 @@
         <v>41.42333333333322</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -18087,16 +18063,14 @@
         <v>41.40999999999988</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -18130,16 +18104,14 @@
         <v>41.40166666666655</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -18173,16 +18145,14 @@
         <v>41.39333333333322</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -18216,16 +18186,14 @@
         <v>41.38499999999988</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -18259,16 +18227,14 @@
         <v>41.37666666666655</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -18302,16 +18268,14 @@
         <v>41.36833333333322</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -18345,16 +18309,14 @@
         <v>41.35999999999989</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -18388,16 +18350,14 @@
         <v>41.35166666666655</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -18431,16 +18391,14 @@
         <v>41.34833333333322</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -18474,16 +18432,14 @@
         <v>41.33999999999989</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -18517,16 +18473,14 @@
         <v>41.33166666666656</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -18560,16 +18514,14 @@
         <v>41.32333333333322</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -18603,16 +18555,14 @@
         <v>41.31499999999989</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -18646,16 +18596,14 @@
         <v>41.30666666666655</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -18689,16 +18637,14 @@
         <v>41.29833333333322</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -18732,16 +18678,14 @@
         <v>41.28999999999989</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -18775,16 +18719,14 @@
         <v>41.28166666666655</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -18818,16 +18760,14 @@
         <v>41.27499999999988</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -18861,16 +18801,14 @@
         <v>41.26833333333322</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -18904,16 +18842,14 @@
         <v>41.25999999999988</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -18947,16 +18883,14 @@
         <v>41.25499999999988</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>41.1</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -18990,16 +18924,14 @@
         <v>41.25666666666655</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>41</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -19033,16 +18965,14 @@
         <v>41.24833333333321</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>41</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -19076,16 +19006,14 @@
         <v>41.24666666666655</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>41</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -19119,16 +19047,14 @@
         <v>41.25333333333322</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -19162,16 +19088,14 @@
         <v>41.25499999999988</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -19205,16 +19129,14 @@
         <v>41.25833333333322</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -19248,16 +19170,14 @@
         <v>41.26166666666656</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -19291,16 +19211,14 @@
         <v>41.26666666666656</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -19334,16 +19252,14 @@
         <v>41.27166666666656</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -19377,16 +19293,14 @@
         <v>41.27833333333323</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>41.3</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -19420,16 +19334,14 @@
         <v>41.27833333333323</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -19463,16 +19375,14 @@
         <v>41.27166666666656</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -19506,16 +19416,14 @@
         <v>41.26833333333323</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -19549,16 +19457,14 @@
         <v>41.26333333333324</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -19592,16 +19498,14 @@
         <v>41.26166666666657</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -19635,16 +19539,14 @@
         <v>41.25999999999991</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -19678,16 +19580,14 @@
         <v>41.26166666666657</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>41.6</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -19721,16 +19621,14 @@
         <v>41.26166666666657</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -19764,16 +19662,14 @@
         <v>41.26166666666657</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -19814,7 +19710,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -19855,7 +19751,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest FNB.xlsx
+++ b/BackTest/2019-10-19 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2530,7 +2530,7 @@
         <v>213017.2798626076</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>274760.0868782758</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>471229.5006782758</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>810421.0501782759</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>810421.0501782759</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>809205.7045782759</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>809292.6915782759</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>775737.1538782759</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>775705.3047782759</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>775890.8253782759</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>764595.7315782759</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>805873.639578276</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>816563.0305782759</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>814696.6720782759</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>763652.2919782759</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>776317.4781782759</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>761317.4781782759</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>758310.6945782759</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>802252.6176785568</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>801590.0422785569</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>851604.4200785569</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>818487.7161785569</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>882083.9322785569</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>880979.6651785568</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>863037.1462785568</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>862390.9242785568</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>844963.0316785568</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>829652.1690785568</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>823796.5135785568</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>823796.5135785568</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>824010.4762785569</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>819318.0580785569</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>820782.3936785569</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>818676.3557785569</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>818820.2484785569</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>802449.5223785569</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>802449.5223785569</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>805452.0223785569</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>798750.0227785569</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>812760.0227785569</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>826263.5850785569</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>824344.7133785569</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>795053.2428785568</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>795063.2428785568</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>790563.2587785568</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>790563.2587785568</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>789413.7702785569</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>786745.1672636035</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>768123.6227636036</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>751112.0864636035</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>751612.2025636035</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>751612.2025636035</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>706083.5200636035</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>706083.5200636035</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>707648.6653636035</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>707648.6653636035</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>706668.9909636035</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>706668.9909636035</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>701762.2377636035</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>708958.0494636034</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>710525.7798636034</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>705748.6057636035</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>668415.1965636035</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>582003.7816636035</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>584652.0000636035</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>584652.0000636035</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>576611.9224636036</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -17776,11 +17776,17 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17815,17 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>41</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17854,17 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>41</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,15 +17893,17 @@
         <v>-552466.910340521</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>41</v>
       </c>
-      <c r="J530" t="n">
-        <v>41</v>
-      </c>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,15 +17932,15 @@
         <v>-432464.1006237746</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L531" t="n">
@@ -17951,15 +17971,15 @@
         <v>-433193.5200237746</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L532" t="n">
@@ -17990,11 +18010,17 @@
         <v>-432307.6909237747</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18023,11 +18049,17 @@
         <v>-432539.6909237747</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18060,7 +18092,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18093,7 +18129,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18122,11 +18162,17 @@
         <v>-416969.0735237746</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18155,11 +18201,17 @@
         <v>-416969.0735237746</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18188,11 +18240,17 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18225,7 +18283,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18254,11 +18316,17 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18287,11 +18355,17 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18320,11 +18394,17 @@
         <v>-508379.8091237746</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18353,11 +18433,17 @@
         <v>-508379.8091237746</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18386,11 +18472,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>41.1</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18419,11 +18511,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18452,11 +18550,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18485,11 +18589,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18518,11 +18628,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18551,11 +18667,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18584,11 +18706,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18617,11 +18745,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18650,11 +18784,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18683,11 +18823,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +18862,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18749,11 +18901,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18782,15 +18940,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>41.2</v>
       </c>
-      <c r="J557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18819,15 +18979,15 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
         <v>41.2</v>
       </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L558" t="n">
@@ -18858,17 +19018,15 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>41.2</v>
       </c>
-      <c r="J559" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L559" t="n">
@@ -18899,11 +19057,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18932,15 +19096,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>41.2</v>
       </c>
-      <c r="J561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18969,17 +19135,15 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>41.2</v>
       </c>
-      <c r="J562" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L562" t="n">
@@ -19010,17 +19174,15 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>41.2</v>
       </c>
-      <c r="J563" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L563" t="n">
@@ -19055,7 +19217,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19084,11 +19250,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19117,11 +19289,17 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19150,11 +19328,17 @@
         <v>-401173.6693237746</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19183,11 +19367,17 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19220,7 +19410,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19253,7 +19447,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19286,7 +19484,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19319,7 +19521,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19348,15 +19554,15 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K573" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19385,17 +19591,15 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>41.2</v>
       </c>
-      <c r="J574" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L574" t="n">
@@ -19426,14 +19630,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>41.2</v>
       </c>
-      <c r="J575" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19467,14 +19669,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>41.2</v>
       </c>
-      <c r="J576" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19508,14 +19708,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>41.2</v>
       </c>
-      <c r="J577" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19549,14 +19747,12 @@
         <v>-465607.5396237746</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>41.2</v>
       </c>
-      <c r="J578" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19590,14 +19786,12 @@
         <v>-503675.0841237747</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>41.1</v>
       </c>
-      <c r="J579" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,14 +19825,12 @@
         <v>-503120.0841237747</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>41</v>
       </c>
-      <c r="J580" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19672,12 +19864,12 @@
         <v>-504262.7093237747</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19711,12 +19903,12 @@
         <v>-504262.7093237747</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>41</v>
+      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19750,14 +19942,12 @@
         <v>-502356.8593237747</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>41</v>
       </c>
-      <c r="J583" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,12 +19981,12 @@
         <v>-526145.4057237747</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19830,12 +20020,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
         <v>41.2</v>
       </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,12 +20059,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19908,12 +20098,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,12 +20137,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19986,14 +20176,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>41.3</v>
       </c>
-      <c r="J589" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20027,12 +20215,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20066,12 +20254,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20105,12 +20293,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20144,12 +20332,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20183,12 +20371,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20222,12 +20410,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20264,9 +20452,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20303,9 +20489,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20339,12 +20523,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,12 +20562,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20420,9 +20604,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20459,9 +20641,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20498,9 +20678,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20537,9 +20715,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20576,9 +20752,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20615,9 +20789,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20651,12 +20823,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20693,9 +20865,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20729,12 +20899,12 @@
         <v>-381435.2384237747</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>41.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20771,9 +20941,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20810,9 +20978,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20824,6 +20990,6 @@
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest FNB.xlsx
+++ b/BackTest/2019-10-19 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>725.3146626076677</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>705.3146626076677</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>38771.32786260766</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>74990.42856260766</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>75002.42856260766</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>74875.18276260766</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>100626.4702626076</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>125079.1373626076</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>183671.8903626076</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>213017.2798626076</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>274760.0868782758</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>763652.2919782759</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>776317.4781782759</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>761317.4781782759</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>758310.6945782759</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>802252.6176785568</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>801590.0422785569</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>851604.4200785569</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>818487.7161785569</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>882083.9322785569</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>880979.6651785568</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>863037.1462785568</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>862390.9242785568</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>844963.0316785568</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>845124.0674785568</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>835509.5349785568</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>829652.1690785568</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>823796.5135785568</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>823796.5135785568</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>824010.4762785569</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>819318.0580785569</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>820782.3936785569</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>818676.3557785569</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>818820.2484785569</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>810401.1476785569</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>802449.5223785569</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>802449.5223785569</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>805452.0223785569</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>798750.0227785569</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>812760.0227785569</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>826263.5850785569</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>824344.7133785569</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>795053.2428785568</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>795063.2428785568</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>790563.2587785568</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>790563.2587785568</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>789413.7702785569</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>786745.1672636035</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>768123.6227636036</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>751112.0864636035</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>751612.2025636035</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>751612.2025636035</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>706083.5200636035</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>706083.5200636035</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>707648.6653636035</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>707648.6653636035</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>706668.9909636035</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>706668.9909636035</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>701762.2377636035</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>712693.9278636035</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>712703.9278636035</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>708958.0494636034</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>710525.7798636034</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>710517.5102636034</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>705736.3043636035</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>705748.6057636035</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>668415.1965636035</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>582003.7816636035</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>584652.0000636035</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>584652.0000636035</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>576611.9224636036</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>585661.7089636036</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>763962.1753636037</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>527646.8822567882</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>527632.6502567882</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>528592.8388567882</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -17710,10 +17710,14 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J525" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
@@ -17743,11 +17747,19 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J526" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17781,7 +17793,9 @@
       <c r="I527" t="n">
         <v>41.1</v>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -17820,7 +17834,9 @@
       <c r="I528" t="n">
         <v>41</v>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,7 +17875,9 @@
       <c r="I529" t="n">
         <v>41</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,7 +17916,9 @@
       <c r="I530" t="n">
         <v>41</v>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,7 +17957,9 @@
       <c r="I531" t="n">
         <v>41.4</v>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17971,12 +17993,12 @@
         <v>-433193.5200237746</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J532" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18010,12 +18032,12 @@
         <v>-432307.6909237747</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18049,12 +18071,12 @@
         <v>-432539.6909237747</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J534" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18091,7 +18113,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18128,7 +18152,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18162,12 +18188,12 @@
         <v>-416969.0735237746</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18201,12 +18227,12 @@
         <v>-416969.0735237746</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J538" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18240,12 +18266,12 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18282,7 +18308,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18316,12 +18344,12 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18355,12 +18383,12 @@
         <v>-468149.9153237746</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18394,12 +18422,12 @@
         <v>-508379.8091237746</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18433,12 +18461,12 @@
         <v>-508379.8091237746</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
         <v>41.1</v>
       </c>
-      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18472,12 +18500,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
         <v>41.1</v>
       </c>
-      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18511,12 +18539,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18550,12 +18578,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18589,12 +18617,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18628,12 +18656,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18667,12 +18695,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18706,12 +18734,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18745,12 +18773,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J552" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18784,12 +18812,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J553" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,12 +18851,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J554" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18862,12 +18890,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J555" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18901,12 +18929,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J556" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18940,12 +18968,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J557" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18979,12 +19007,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19018,12 +19046,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,12 +19085,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,12 +19124,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J561" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19135,12 +19163,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J562" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19174,12 +19202,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J563" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19216,7 +19244,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19250,12 +19280,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J565" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19289,12 +19319,12 @@
         <v>-461794.7005237747</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19328,12 +19358,12 @@
         <v>-401173.6693237746</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19367,12 +19397,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19409,7 +19439,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19446,7 +19478,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19483,7 +19517,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19520,7 +19556,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19557,7 +19595,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19591,12 +19631,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19630,12 +19670,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19669,12 +19709,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19708,12 +19748,12 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19747,12 +19787,12 @@
         <v>-465607.5396237746</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,7 +19831,9 @@
       <c r="I579" t="n">
         <v>41.1</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19830,7 +19872,9 @@
       <c r="I580" t="n">
         <v>41</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,7 +19913,9 @@
       <c r="I581" t="n">
         <v>41.5</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19908,7 +19954,9 @@
       <c r="I582" t="n">
         <v>41</v>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,7 +19995,9 @@
       <c r="I583" t="n">
         <v>41</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19981,12 +20031,12 @@
         <v>-526145.4057237747</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20025,7 +20075,9 @@
       <c r="I585" t="n">
         <v>41.2</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,7 +20116,9 @@
       <c r="I586" t="n">
         <v>41.3</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20098,12 +20152,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20137,12 +20191,12 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J588" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20176,12 +20230,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J589" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20215,12 +20269,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20254,12 +20308,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20293,12 +20347,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20332,12 +20386,12 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20371,12 +20425,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20410,12 +20464,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20452,7 +20506,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,7 +20545,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20523,12 +20581,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,12 +20620,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20604,7 +20662,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20641,7 +20701,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20678,7 +20740,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20715,7 +20779,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20752,7 +20818,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20789,7 +20857,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20823,12 +20893,12 @@
         <v>-351756.2924237747</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20865,7 +20935,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20899,12 +20971,12 @@
         <v>-381435.2384237747</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20941,7 +21013,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20978,7 +21052,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>41.1</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20990,6 +21066,6 @@
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest FNB.xlsx
+++ b/BackTest/2019-10-19 BackTest FNB.xlsx
@@ -814,7 +814,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-12210.98773739233</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>725.3146626076677</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>705.3146626076677</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>38771.32786260766</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>76145.01826260766</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>74990.42856260766</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>75002.42856260766</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>74875.18276260766</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>100626.4702626076</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>125079.1373626076</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>183671.8903626076</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>213017.2798626076</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>274760.0868782758</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>810421.0501782759</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>809205.7045782759</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>809292.6915782759</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>775737.1538782759</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>775705.3047782759</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>775890.8253782759</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>761663.2690782759</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>765663.2690782759</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>764595.7315782759</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>805873.639578276</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>787489.0080782759</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>816563.0305782759</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>814696.6720782759</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>815202.7546782759</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>766718.8372782759</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>758310.6945782759</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>770333.8302782759</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>802252.6176785568</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>802020.7354785568</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>801590.0422785569</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>851604.4200785569</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>853341.5123785569</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>851080.8352785569</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>849496.5685785569</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>848374.2843785569</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>847372.8355785569</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>763962.1753636037</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>527646.8822567882</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>527632.6502567882</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>528592.8388567882</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>528581.4389567883</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -17710,14 +17710,10 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="J525" t="n">
-        <v>41.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
@@ -17747,19 +17743,11 @@
         <v>-514076.692440521</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="J526" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17788,1860 +17776,1574 @@
         <v>-552496.910340521</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>41</v>
+      </c>
+      <c r="C528" t="n">
+        <v>41</v>
+      </c>
+      <c r="D528" t="n">
+        <v>41</v>
+      </c>
+      <c r="E528" t="n">
+        <v>41</v>
+      </c>
+      <c r="F528" t="n">
+        <v>55472.8358</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-552496.910340521</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>41</v>
+      </c>
+      <c r="C529" t="n">
+        <v>41</v>
+      </c>
+      <c r="D529" t="n">
+        <v>41</v>
+      </c>
+      <c r="E529" t="n">
+        <v>41</v>
+      </c>
+      <c r="F529" t="n">
+        <v>136328.7221</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-552496.910340521</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C530" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D530" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E530" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F530" t="n">
+        <v>30</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-552466.910340521</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C531" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D531" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E531" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F531" t="n">
+        <v>120002.8097167464</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-432464.1006237746</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C532" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D532" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E532" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F532" t="n">
+        <v>729.4194</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-433193.5200237746</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C533" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D533" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E533" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F533" t="n">
+        <v>885.8291</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-432307.6909237747</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C534" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D534" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E534" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F534" t="n">
+        <v>232</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-432539.6909237747</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C535" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D535" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E535" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F535" t="n">
+        <v>125608.409</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-432539.6909237747</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C536" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D536" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E536" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F536" t="n">
+        <v>53651.8648</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-486191.5557237747</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C537" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D537" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E537" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F537" t="n">
+        <v>69222.4822</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-416969.0735237746</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C538" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D538" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E538" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F538" t="n">
+        <v>39089.4866</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-416969.0735237746</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C539" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D539" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E539" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F539" t="n">
+        <v>51180.8418</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-468149.9153237746</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C540" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D540" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E540" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F540" t="n">
+        <v>64805.5562</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-468149.9153237746</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C541" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D541" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E541" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F541" t="n">
+        <v>45141.9592</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-468149.9153237746</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C542" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D542" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E542" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F542" t="n">
+        <v>61123.1112</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-468149.9153237746</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C543" t="n">
         <v>41.1</v>
       </c>
-      <c r="J527" t="n">
+      <c r="D543" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E543" t="n">
         <v>41.1</v>
       </c>
-      <c r="K527" t="inlineStr">
+      <c r="F543" t="n">
+        <v>40229.8938</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-508379.8091237746</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C544" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="D544" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E544" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F544" t="n">
+        <v>71183.7959</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-508379.8091237746</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C545" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D545" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F545" t="n">
+        <v>46585.1086</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C546" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D546" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F546" t="n">
+        <v>59542.4998</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C547" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D547" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F547" t="n">
+        <v>47195.5422</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C548" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D548" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E548" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F548" t="n">
+        <v>54103.8184</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C549" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D549" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E549" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F549" t="n">
+        <v>63107.2332</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C550" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D550" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E550" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F550" t="n">
+        <v>51496.2274</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C551" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D551" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E551" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F551" t="n">
+        <v>59120.0271</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C552" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D552" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E552" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F552" t="n">
+        <v>66778.5156</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C553" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D553" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E553" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F553" t="n">
+        <v>56897.5654</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C554" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D554" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E554" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F554" t="n">
+        <v>64261.209</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C555" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D555" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E555" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F555" t="n">
+        <v>61424.7646</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C556" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D556" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E556" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F556" t="n">
+        <v>64820.8522</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C557" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D557" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E557" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F557" t="n">
+        <v>70061.36840000001</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C558" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D558" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E558" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F558" t="n">
+        <v>65741.60980000001</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C559" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D559" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E559" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F559" t="n">
+        <v>62199.604</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C560" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D560" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E560" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F560" t="n">
+        <v>25886.9488</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C561" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D561" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E561" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F561" t="n">
+        <v>72000.9378</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C562" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D562" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E562" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F562" t="n">
+        <v>70249.31660000001</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C563" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D563" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E563" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F563" t="n">
+        <v>68882.9828</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C564" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D564" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E564" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F564" t="n">
+        <v>67643.7142</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C565" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D565" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E565" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F565" t="n">
+        <v>58441.764</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C566" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D566" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E566" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F566" t="n">
+        <v>56979.0272</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-461794.7005237747</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C567" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D567" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E567" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F567" t="n">
+        <v>60621.0312</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-401173.6693237746</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C568" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D568" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E568" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F568" t="n">
+        <v>63740.1066</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C569" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D569" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E569" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F569" t="n">
+        <v>65061.0634</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C570" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D570" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E570" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F570" t="n">
+        <v>64389.6696</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C571" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D571" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E571" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F571" t="n">
+        <v>46588.8038</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C572" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D572" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E572" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F572" t="n">
+        <v>57609.0746</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F573" t="n">
+        <v>59936.8694</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J573" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C574" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D574" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E574" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F574" t="n">
+        <v>69965.9279</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-464913.7759237746</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J574" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K574" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>41</v>
-      </c>
-      <c r="C528" t="n">
-        <v>41</v>
-      </c>
-      <c r="D528" t="n">
-        <v>41</v>
-      </c>
-      <c r="E528" t="n">
-        <v>41</v>
-      </c>
-      <c r="F528" t="n">
-        <v>55472.8358</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-552496.910340521</v>
-      </c>
-      <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>41</v>
-      </c>
-      <c r="J528" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>41</v>
-      </c>
-      <c r="C529" t="n">
-        <v>41</v>
-      </c>
-      <c r="D529" t="n">
-        <v>41</v>
-      </c>
-      <c r="E529" t="n">
-        <v>41</v>
-      </c>
-      <c r="F529" t="n">
-        <v>136328.7221</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-552496.910340521</v>
-      </c>
-      <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>41</v>
-      </c>
-      <c r="J529" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C530" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D530" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E530" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F530" t="n">
-        <v>30</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-552466.910340521</v>
-      </c>
-      <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>41</v>
-      </c>
-      <c r="J530" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C531" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D531" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E531" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F531" t="n">
-        <v>120002.8097167464</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-432464.1006237746</v>
-      </c>
-      <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J531" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C532" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D532" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E532" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F532" t="n">
-        <v>729.4194</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-433193.5200237746</v>
-      </c>
-      <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C533" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D533" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E533" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F533" t="n">
-        <v>885.8291</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-432307.6909237747</v>
-      </c>
-      <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C534" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D534" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E534" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F534" t="n">
-        <v>232</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-432539.6909237747</v>
-      </c>
-      <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C535" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D535" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E535" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F535" t="n">
-        <v>125608.409</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-432539.6909237747</v>
-      </c>
-      <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C536" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D536" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E536" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F536" t="n">
-        <v>53651.8648</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-486191.5557237747</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C537" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D537" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E537" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F537" t="n">
-        <v>69222.4822</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-416969.0735237746</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C538" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D538" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E538" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F538" t="n">
-        <v>39089.4866</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-416969.0735237746</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C539" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D539" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E539" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F539" t="n">
-        <v>51180.8418</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-468149.9153237746</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C540" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D540" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E540" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F540" t="n">
-        <v>64805.5562</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-468149.9153237746</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C541" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D541" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E541" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F541" t="n">
-        <v>45141.9592</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-468149.9153237746</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C542" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="D542" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E542" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F542" t="n">
-        <v>61123.1112</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-468149.9153237746</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C543" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="D543" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E543" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F543" t="n">
-        <v>40229.8938</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-508379.8091237746</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="C544" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="D544" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E544" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F544" t="n">
-        <v>71183.7959</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-508379.8091237746</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C545" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D545" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E545" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F545" t="n">
-        <v>46585.1086</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C546" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D546" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E546" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F546" t="n">
-        <v>59542.4998</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C547" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D547" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E547" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F547" t="n">
-        <v>47195.5422</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C548" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D548" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E548" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F548" t="n">
-        <v>54103.8184</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C549" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D549" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E549" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F549" t="n">
-        <v>63107.2332</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C550" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D550" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E550" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F550" t="n">
-        <v>51496.2274</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C551" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D551" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E551" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F551" t="n">
-        <v>59120.0271</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C552" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D552" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E552" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F552" t="n">
-        <v>66778.5156</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C553" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D553" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E553" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F553" t="n">
-        <v>56897.5654</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C554" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D554" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E554" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F554" t="n">
-        <v>64261.209</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C555" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D555" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E555" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F555" t="n">
-        <v>61424.7646</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C556" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D556" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E556" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F556" t="n">
-        <v>64820.8522</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E557" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F557" t="n">
-        <v>70061.36840000001</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C558" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D558" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E558" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F558" t="n">
-        <v>65741.60980000001</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C559" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D559" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E559" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F559" t="n">
-        <v>62199.604</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C560" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D560" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E560" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F560" t="n">
-        <v>25886.9488</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E561" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F561" t="n">
-        <v>72000.9378</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C562" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D562" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E562" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F562" t="n">
-        <v>70249.31660000001</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C563" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D563" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E563" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F563" t="n">
-        <v>68882.9828</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C564" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D564" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E564" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F564" t="n">
-        <v>67643.7142</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C565" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D565" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E565" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F565" t="n">
-        <v>58441.764</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C566" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D566" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E566" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F566" t="n">
-        <v>56979.0272</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-461794.7005237747</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C567" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D567" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E567" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F567" t="n">
-        <v>60621.0312</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-401173.6693237746</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C568" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D568" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E568" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F568" t="n">
-        <v>63740.1066</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C569" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D569" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E569" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F569" t="n">
-        <v>65061.0634</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C570" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D570" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E570" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F570" t="n">
-        <v>64389.6696</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C571" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D571" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E571" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F571" t="n">
-        <v>46588.8038</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C572" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D572" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E572" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F572" t="n">
-        <v>57609.0746</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E573" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F573" t="n">
-        <v>59936.8694</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="C574" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D574" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E574" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F574" t="n">
-        <v>69965.9279</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-464913.7759237746</v>
-      </c>
-      <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19674,7 +19376,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19709,11 +19411,13 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J576" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19748,11 +19452,13 @@
         <v>-464913.7759237746</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J577" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19787,11 +19493,13 @@
         <v>-465607.5396237746</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>41.2</v>
+      </c>
       <c r="J578" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19832,7 +19540,7 @@
         <v>41.1</v>
       </c>
       <c r="J579" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19873,7 +19581,7 @@
         <v>41</v>
       </c>
       <c r="J580" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -19914,7 +19622,7 @@
         <v>41.5</v>
       </c>
       <c r="J581" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -19955,7 +19663,7 @@
         <v>41</v>
       </c>
       <c r="J582" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -19996,7 +19704,7 @@
         <v>41</v>
       </c>
       <c r="J583" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20031,11 +19739,13 @@
         <v>-526145.4057237747</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>41.5</v>
+      </c>
       <c r="J584" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20076,7 +19786,7 @@
         <v>41.2</v>
       </c>
       <c r="J585" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20117,7 +19827,7 @@
         <v>41.3</v>
       </c>
       <c r="J586" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20152,11 +19862,13 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J587" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20191,11 +19903,13 @@
         <v>-486925.4679237747</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J588" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20230,11 +19944,13 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J589" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20269,11 +19985,13 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J590" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20308,11 +20026,13 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J591" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20351,7 +20071,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20386,11 +20106,13 @@
         <v>-430968.5167237747</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>41.4</v>
+      </c>
       <c r="J593" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20429,7 +20151,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20468,7 +20190,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20507,7 +20229,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20546,7 +20268,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20585,7 +20307,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20624,7 +20346,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20663,7 +20385,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20702,7 +20424,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20741,7 +20463,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20780,7 +20502,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20819,7 +20541,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20858,7 +20580,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20897,7 +20619,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20936,7 +20658,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20975,7 +20697,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21014,7 +20736,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21053,7 +20775,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
